--- a/MEDIA/_ 2281 _009_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281 _009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281 _009_2020-10-01~2020-10-20)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281 _009_2020-10-26~2020-10-31)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>8896145</v>
+        <v>11057870</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>頂-虎尾林森-鍾葦蓁暫收6萬+保證金5萬          </t>
+          <t>頂-新竹新莊-何武亮 暫收款6萬              </t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -452,11 +452,11 @@
         <v>-60000</v>
       </c>
       <c r="G4" t="n">
-        <v>8956145</v>
+        <v>11117870</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109528</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>暫收-蘆竹鴻佰科技-林欣杰-暫收款6萬           </t>
+          <t>沖楊梅校前設備款                      </t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>940000</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>-60000</v>
-      </c>
       <c r="G5" t="n">
-        <v>9016145</v>
+        <v>10177870</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>110788</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201007</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>暫收-花蓮東華-林弘銘 工程款$232,640       </t>
+          <t>沖羅東成功設備款                      </t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>-232640</v>
-      </c>
       <c r="G6" t="n">
-        <v>9248785</v>
+        <v>10167870</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109765</t>
+          <t>110742</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>頂-三重三民-蔣奇勳 工程款15萬元            </t>
+          <t>沖羅東成功設備款                      </t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>320000</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>-150000</v>
-      </c>
       <c r="G7" t="n">
-        <v>9398785</v>
+        <v>9847870</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>110741</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
+          <t>沖大甲日南 設備款                     </t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>871480</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
-        <v>-340000</v>
-      </c>
       <c r="G8" t="n">
-        <v>9738785</v>
+        <v>8976390</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>110737</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
+          <t>沖北市景福設備款                      </t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>1176600</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
-        <v>-180000</v>
-      </c>
       <c r="G9" t="n">
-        <v>9918785</v>
+        <v>7799790</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109882</t>
+          <t>110819</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,106 +688,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
+          <t>沖北市成都 設備款                     </t>
         </is>
       </c>
       <c r="E10" t="n">
+        <v>883400</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
-        <v>-20000</v>
-      </c>
       <c r="G10" t="n">
-        <v>9938785</v>
+        <v>6916390</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>110805</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-261480</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10200265</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>20201019</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>暫收-羅東成功 工程款分期$10000           </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10210265</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>110266</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/MEDIA/_ 2281 _009_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281 _009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281 _009_2020-10-26~2020-10-31)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281 _009_2020-12-05~2020-12-10)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>11057870</v>
+        <v>3260800</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>頂-新竹新莊-何武亮 暫收款6萬              </t>
+          <t>10910月台北展NO.77-簡勤益-代尋2萬       </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-60000</v>
+        <v>-20000</v>
       </c>
       <c r="G4" t="n">
-        <v>11117870</v>
+        <v>3280800</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110649</t>
+          <t>112366</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201207</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖楊梅校前設備款                      </t>
+          <t>暫收-中和民樂-古育瑋煥然一新 設備款50萬        </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>940000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-500000</v>
       </c>
       <c r="G5" t="n">
-        <v>10177870</v>
+        <v>3780800</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110788</t>
+          <t>112418</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201208</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖羅東成功設備款                      </t>
+          <t>頂-溪湖太平-楊絜涵/施佳欣 暫收款6萬          </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-60000</v>
       </c>
       <c r="G6" t="n">
-        <v>10167870</v>
+        <v>3840800</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110742</t>
+          <t>112467</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201209</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖羅東成功設備款                      </t>
+          <t>暫收-清水西寧 許哲原/陳素琴 工程款60萬        </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>320000</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="G7" t="n">
-        <v>9847870</v>
+        <v>4440800</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110741</t>
+          <t>112537</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201209</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,106 +606,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖大甲日南 設備款                     </t>
+          <t>暫收-林晏竹 代尋2萬                   </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>871480</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="G8" t="n">
-        <v>8976390</v>
+        <v>4460800</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>112537</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沖北市景福設備款                      </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1176600</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7799790</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>110819</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沖北市成都 設備款                     </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>883400</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6916390</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>110805</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
